--- a/docs/后端API_V0.3.xlsx
+++ b/docs/后端API_V0.3.xlsx
@@ -774,7 +774,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/docs/后端API_V0.3.xlsx
+++ b/docs/后端API_V0.3.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE4340A-8715-42A2-82DC-5A2AF8528CBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22515" yWindow="-165" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="405" yWindow="360" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API列表" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="101">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,9 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"connections": "5","speed": "10.0" 待补充...}</t>
-  </si>
-  <si>
     <t>模块管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"moduleslist":[{"name":"模块1","type":"static"，待补充...}]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/install_module/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,14 +390,46 @@
   </si>
   <si>
     <t>读取Apahce日志文件文本，保留部分字段为json格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/save_apache_path/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存Apache目录路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取保存的Apache目录路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"path":"Apache目录具体路径"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：性能监控和模块管理部分都要先设置Apache目录路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/load_apache_path/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"static_list":[{"name":"模块1",...}],"shared_list":[{"name":"模块1",...}]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"connections": "5",...}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +488,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -483,13 +516,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -769,12 +803,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -895,7 +929,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -911,7 +945,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -920,7 +954,7 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
@@ -1009,7 +1043,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1032,15 +1066,15 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1049,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1063,30 +1097,30 @@
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
         <v>81</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>82</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>83</v>
       </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" t="s">
-        <v>85</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1099,25 +1133,25 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
         <v>86</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>87</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>88</v>
       </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1135,28 +1169,31 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>9</v>
       </c>
@@ -1166,25 +1203,25 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1197,25 +1234,25 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1227,93 +1264,93 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>54</v>
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>7</v>
+      <c r="F32" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F33" s="3" t="s">
-        <v>9</v>
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>7</v>
+      <c r="F34" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" t="s">
-        <v>14</v>
+      <c r="A35" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1325,35 +1362,97 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>71</v>
+      <c r="A38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="F39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
         <v>66</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D43" t="s">
         <v>67</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E43" t="s">
         <v>68</v>
       </c>
-      <c r="D39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F40" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F44" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
